--- a/src/main/python/science/samples/2_5.xlsx
+++ b/src/main/python/science/samples/2_5.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA26D8-D519-EC4C-9772-AD3767FAE416}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
   <si>
     <t xml:space="preserve">  0.73</t>
   </si>
@@ -337,12 +338,15 @@
   </si>
   <si>
     <t xml:space="preserve">  1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,16 +657,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -690,7 +694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -704,7 +708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -718,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -732,7 +736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -746,7 +750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -760,7 +764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -774,7 +778,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -788,7 +792,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -802,7 +806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -816,7 +820,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -830,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -844,7 +848,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -858,7 +862,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -872,7 +876,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -886,7 +890,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -900,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -914,7 +918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -928,7 +932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -942,7 +946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -956,7 +960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -970,7 +974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -984,7 +988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1040,7 +1044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1068,7 +1072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1194,7 +1198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1222,7 +1226,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -1488,9 +1492,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/python/science/samples/2_5.xlsx
+++ b/src/main/python/science/samples/2_5.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA26D8-D519-EC4C-9772-AD3767FAE416}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanpodkidysev/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{048FB8AD-EADD-1546-8606-7B828DD23828}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{47A0FCCA-B4AF-7840-9F5D-8375D906F838}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,15 +27,150 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
   <si>
+    <t xml:space="preserve">  1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.25</t>
+  </si>
+  <si>
     <t xml:space="preserve">  0.73</t>
   </si>
   <si>
     <t xml:space="preserve">  0.56</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.81</t>
-  </si>
-  <si>
     <t xml:space="preserve">  0.58</t>
   </si>
   <si>
@@ -43,9 +183,6 @@
     <t xml:space="preserve">  0.65</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.93</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1.23</t>
   </si>
   <si>
@@ -73,9 +210,6 @@
     <t xml:space="preserve">  0.69</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.66</t>
-  </si>
-  <si>
     <t xml:space="preserve">  0.63</t>
   </si>
   <si>
@@ -85,9 +219,6 @@
     <t xml:space="preserve">  0.67</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.85</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1.04</t>
   </si>
   <si>
@@ -106,9 +237,6 @@
     <t xml:space="preserve">  0.39</t>
   </si>
   <si>
-    <t xml:space="preserve">  0.97</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1.09</t>
   </si>
   <si>
@@ -124,133 +252,10 @@
     <t xml:space="preserve">  0.87</t>
   </si>
   <si>
-    <t xml:space="preserve">  1.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1.49</t>
   </si>
   <si>
     <t xml:space="preserve">  0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2.25</t>
   </si>
   <si>
     <t xml:space="preserve">  0.96</t>
@@ -349,10 +354,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -412,7 +418,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -424,7 +430,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -471,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -506,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -657,24 +697,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6542F1E-FA78-544D-AF9F-C407364AE9CF}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>82</v>
@@ -682,94 +722,94 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -780,13 +820,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
@@ -794,13 +834,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
@@ -808,13 +848,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>95</v>
@@ -822,27 +862,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>93</v>
@@ -850,13 +890,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -864,10 +904,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>80</v>
@@ -878,153 +918,153 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
         <v>98</v>
@@ -1032,27 +1072,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
@@ -1060,69 +1100,69 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
@@ -1130,10 +1170,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>83</v>
@@ -1144,38 +1184,38 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>84</v>
@@ -1186,27 +1226,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
         <v>102</v>
@@ -1214,10 +1254,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>85</v>
@@ -1228,10 +1268,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
         <v>86</v>
@@ -1242,10 +1282,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>82</v>
@@ -1256,13 +1296,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
         <v>104</v>
@@ -1270,10 +1310,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
         <v>81</v>
@@ -1284,55 +1324,55 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
         <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
         <v>77</v>
@@ -1340,38 +1380,38 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
         <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
         <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
@@ -1382,38 +1422,38 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
         <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
         <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
         <v>92</v>
@@ -1424,83 +1464,83 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
         <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
         <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
         <v>83</v>
